--- a/data/trans_dic/P1421-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1421-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.05000042054159805</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.08549011115462943</v>
+        <v>0.08549011115462941</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01912511178527392</v>
+        <v>0.01918788123901934</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009697551161592086</v>
+        <v>0.009218323091066587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01278618216174516</v>
+        <v>0.01213921602231771</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02625516945199098</v>
+        <v>0.02620108837362882</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04421944708380818</v>
+        <v>0.04535307391430207</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04792387587792084</v>
+        <v>0.04757657952682945</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05597268244760775</v>
+        <v>0.05567120438461414</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1030481861561898</v>
+        <v>0.1017544510030633</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03684484612155234</v>
+        <v>0.03631281062071353</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03255950004518501</v>
+        <v>0.03346084502304187</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04056101999248188</v>
+        <v>0.04006797277928852</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07477811294451533</v>
+        <v>0.07421709163615207</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03970472726441641</v>
+        <v>0.04070560591823162</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02754866818845015</v>
+        <v>0.02682012256942368</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0328268577060654</v>
+        <v>0.03228598196976248</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05654326988338028</v>
+        <v>0.05564218044265533</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06992422123683702</v>
+        <v>0.07112707440063673</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07514749537840731</v>
+        <v>0.07386605903581987</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0918252804755504</v>
+        <v>0.09188409336473739</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1362079290072475</v>
+        <v>0.13538075887108</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0538619792499042</v>
+        <v>0.05390409636520473</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05001048494307737</v>
+        <v>0.05123813315725396</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06252780407373636</v>
+        <v>0.06177742877155687</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09859576153385259</v>
+        <v>0.09847133840708026</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.04791749383546821</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1148968987672745</v>
+        <v>0.1148968987672744</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03708898061138889</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01207760325698003</v>
+        <v>0.01281148923194383</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008295867356011098</v>
+        <v>0.00777199008918874</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006906200354613966</v>
+        <v>0.007122094755094553</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03877735135962886</v>
+        <v>0.03900097965061312</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04577573828936872</v>
+        <v>0.04662312998630284</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03955700210016852</v>
+        <v>0.03895222744736428</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03904183999360756</v>
+        <v>0.03853769426761922</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1018056528211949</v>
+        <v>0.1017685224146977</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03069127834981071</v>
+        <v>0.03082198661654904</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02407195085213543</v>
+        <v>0.02408546160662693</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02432193412860949</v>
+        <v>0.02407234993418016</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07368943918992643</v>
+        <v>0.07368819913807337</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02576629370044782</v>
+        <v>0.02627320586511732</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01780987619362719</v>
+        <v>0.01689912130877066</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01650979888567514</v>
+        <v>0.01714447678470799</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05875435343440706</v>
+        <v>0.05924300822064495</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07069124650200208</v>
+        <v>0.06961343214752184</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05953774604691717</v>
+        <v>0.06193904274821705</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05862928961604157</v>
+        <v>0.05951310931455546</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1268038640014368</v>
+        <v>0.1281649547837173</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04385975090528178</v>
+        <v>0.04515615703751643</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03528144752374036</v>
+        <v>0.03561401465383701</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03553113039983941</v>
+        <v>0.03471433462532883</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0898457751839863</v>
+        <v>0.08906252712355846</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.03384315385252171</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07257886050762917</v>
+        <v>0.07257886050762916</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01915455873321482</v>
+        <v>0.01896990964827009</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007908843207254091</v>
+        <v>0.008869284630760085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02841152671625652</v>
+        <v>0.02763736419707444</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04260570276402153</v>
+        <v>0.04307844938990302</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03656721211575913</v>
+        <v>0.03600621927246406</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03409248461958204</v>
+        <v>0.03445040759172427</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08344298065661629</v>
+        <v>0.08418395607228994</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03479797061587372</v>
+        <v>0.03352143791936105</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01842251844509526</v>
+        <v>0.02013594997212572</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02451245151211751</v>
+        <v>0.02319403408199618</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06023964073537146</v>
+        <v>0.06124858653784657</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05085291068697883</v>
+        <v>0.04957309751229281</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01429974235750423</v>
+        <v>0.01404658159002575</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0308055851511788</v>
+        <v>0.03201884907947901</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05985746911136898</v>
+        <v>0.06114275362410759</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08604504844072458</v>
+        <v>0.08830011285377523</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08180624919296453</v>
+        <v>0.08303457615641759</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07267784362455065</v>
+        <v>0.07301530125559019</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1240818242470022</v>
+        <v>0.1253154268018857</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06053205346077622</v>
+        <v>0.06058630584942688</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04093343818745031</v>
+        <v>0.04155286162310991</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04519702127912322</v>
+        <v>0.04480724346408074</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08618881669151662</v>
+        <v>0.08807211216111882</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.05512265689947143</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1133015674045697</v>
+        <v>0.1133015674045698</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.04107308671545017</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01889535268700726</v>
+        <v>0.01904894691259707</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008374106989995926</v>
+        <v>0.008763241547040574</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01047215880068701</v>
+        <v>0.0104110450501686</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03801961434602643</v>
+        <v>0.03835616535392241</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04971533148514866</v>
+        <v>0.05066411401024312</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04546000207459546</v>
+        <v>0.04541995459856366</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04800240242286254</v>
+        <v>0.04779519336012067</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1046152801461528</v>
+        <v>0.1046800337514864</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03635089581225948</v>
+        <v>0.03641570638536167</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02906641228780197</v>
+        <v>0.02924328121826645</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.030807601570633</v>
+        <v>0.03019278950535712</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07436744563355076</v>
+        <v>0.0741829646095534</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02963372077437028</v>
+        <v>0.0299471403282682</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01629063944025876</v>
+        <v>0.01642239852757712</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01867847229161344</v>
+        <v>0.01826419329334273</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05319703117524564</v>
+        <v>0.05401470312921862</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06612740437595363</v>
+        <v>0.06651057253294593</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0609476810839223</v>
+        <v>0.06106078928402379</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06414019756587702</v>
+        <v>0.06477631489724167</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1232583746031391</v>
+        <v>0.1228912139951878</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04581452737283314</v>
+        <v>0.04599832066221192</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03759348194737065</v>
+        <v>0.03793786049956851</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03967211724930247</v>
+        <v>0.03928829769155458</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08666911123180425</v>
+        <v>0.08660471170185524</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>19732</v>
+        <v>19797</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9452</v>
+        <v>8985</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9645</v>
+        <v>9157</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15135</v>
+        <v>15104</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>58154</v>
+        <v>59644</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>64112</v>
+        <v>63648</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>55674</v>
+        <v>55374</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>84494</v>
+        <v>83433</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>86469</v>
+        <v>85220</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>75292</v>
+        <v>77376</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>70942</v>
+        <v>70079</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>104420</v>
+        <v>103636</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>40964</v>
+        <v>41997</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26850</v>
+        <v>26140</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24763</v>
+        <v>24355</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>32594</v>
+        <v>32075</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>91958</v>
+        <v>93540</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>100532</v>
+        <v>98818</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>91335</v>
+        <v>91393</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>111683</v>
+        <v>111005</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>126405</v>
+        <v>126504</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>115646</v>
+        <v>118485</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>109362</v>
+        <v>108049</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>137678</v>
+        <v>137505</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>20452</v>
+        <v>21695</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16284</v>
+        <v>15256</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14340</v>
+        <v>14788</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>86394</v>
+        <v>86893</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>72677</v>
+        <v>74022</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>69406</v>
+        <v>68345</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>77627</v>
+        <v>76624</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>220770</v>
+        <v>220689</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>100701</v>
+        <v>101130</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>89488</v>
+        <v>89538</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>98861</v>
+        <v>97847</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>323976</v>
+        <v>323970</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>43633</v>
+        <v>44491</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>34959</v>
+        <v>33172</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>34281</v>
+        <v>35599</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>130902</v>
+        <v>131991</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>112235</v>
+        <v>110523</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>104464</v>
+        <v>108678</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>116573</v>
+        <v>118330</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>274980</v>
+        <v>277931</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>143908</v>
+        <v>148161</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>131159</v>
+        <v>132396</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>144423</v>
+        <v>141103</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>395007</v>
+        <v>391564</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10562</v>
+        <v>10460</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4325</v>
+        <v>4850</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20217</v>
+        <v>19666</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>20298</v>
+        <v>20523</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>16771</v>
+        <v>16514</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>18722</v>
+        <v>18918</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>61263</v>
+        <v>61807</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>35766</v>
+        <v>34454</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>17314</v>
+        <v>18924</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>26866</v>
+        <v>25421</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>87093</v>
+        <v>88552</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28041</v>
+        <v>27335</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6881</v>
+        <v>6759</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16847</v>
+        <v>17511</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>42594</v>
+        <v>43508</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>40993</v>
+        <v>42067</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>37519</v>
+        <v>38082</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>39910</v>
+        <v>40096</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>91100</v>
+        <v>92006</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>62216</v>
+        <v>62272</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>38470</v>
+        <v>39052</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>49537</v>
+        <v>49110</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>124610</v>
+        <v>127333</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>61911</v>
+        <v>62415</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28629</v>
+        <v>29959</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>35371</v>
+        <v>35165</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>133677</v>
+        <v>134860</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>167998</v>
+        <v>171204</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>161429</v>
+        <v>161287</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>169549</v>
+        <v>168817</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>389450</v>
+        <v>389691</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>241942</v>
+        <v>242374</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>202586</v>
+        <v>203819</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>212872</v>
+        <v>208624</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>538322</v>
+        <v>536987</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>97096</v>
+        <v>98123</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>55694</v>
+        <v>56144</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>63089</v>
+        <v>61689</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>187040</v>
+        <v>189915</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>223458</v>
+        <v>224752</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>216426</v>
+        <v>216828</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>226550</v>
+        <v>228796</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>458852</v>
+        <v>457485</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>304930</v>
+        <v>306153</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>262018</v>
+        <v>264418</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>274123</v>
+        <v>271471</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>627370</v>
+        <v>626904</v>
       </c>
     </row>
     <row r="20">
